--- a/API仕様書.xlsx
+++ b/API仕様書.xlsx
@@ -134,6 +134,209 @@
   </si>
   <si>
     <t>userID(default current user), password, email, sex, address</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Reserve</t>
+  </si>
+  <si>
+    <t>newReserve.php</t>
+  </si>
+  <si>
+    <t>getReserveList.php</t>
+  </si>
+  <si>
+    <t>getReserveSum.php</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">userID(default current user), </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>goodsID,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> reason</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"status":"success", "reserveID":"#uid#"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Return(Failure)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[{...}], json array of reserveinfo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{"status":"success", "sum":"#sum#"}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>新規登録</t>
+    <rPh sb="0" eb="4">
+      <t>シンキトウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サインイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報取得</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー情報変更</t>
+    <rPh sb="4" eb="6">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘンコウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不用品登録</t>
+    <rPh sb="0" eb="3">
+      <t>フヨウヒン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不用品情報取得</t>
+    <rPh sb="0" eb="5">
+      <t>フヨウヒンジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不用品リスト取得</t>
+    <rPh sb="0" eb="3">
+      <t>フヨウヒン</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの登録した不用品リスト取得</t>
+    <rPh sb="5" eb="7">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フヨウヒン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの予約した不用品リスト取得</t>
+    <rPh sb="5" eb="7">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>フヨウヒン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>シュトク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定の不用品の予約リスト</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>フヨウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨヤク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>特定の不用品の予約数</t>
+    <rPh sb="0" eb="2">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>フヨウヒン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>{"status":"success"}　</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>サインイン後、SESSION['CURRENT_USER_ID']、SESSION['CURRENT_USER']　を設定する</t>
+    </r>
+    <rPh sb="26" eb="27">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="80" eb="82">
+      <t>セッテイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -162,209 +365,6 @@
       </rPr>
       <t xml:space="preserve"> photos, description</t>
     </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Reserve</t>
-  </si>
-  <si>
-    <t>newReserve.php</t>
-  </si>
-  <si>
-    <t>getReserveList.php</t>
-  </si>
-  <si>
-    <t>getReserveSum.php</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">userID(default current user), </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>goodsID,</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> reason</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"status":"success", "reserveID":"#uid#"}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Return(Failure)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>[{...}], json array of reserveinfo</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{"status":"success", "sum":"#sum#"}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>新規登録</t>
-    <rPh sb="0" eb="4">
-      <t>シンキトウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>サインイン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー情報取得</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザー情報変更</t>
-    <rPh sb="4" eb="6">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ヘンコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不用品登録</t>
-    <rPh sb="0" eb="3">
-      <t>フヨウヒン</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>トウロク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不用品情報取得</t>
-    <rPh sb="0" eb="5">
-      <t>フヨウヒンジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>不用品リスト取得</t>
-    <rPh sb="0" eb="3">
-      <t>フヨウヒン</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーの登録した不用品リスト取得</t>
-    <rPh sb="5" eb="7">
-      <t>トウロク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>フヨウヒン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ユーザーの予約した不用品リスト取得</t>
-    <rPh sb="5" eb="7">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>フヨウヒン</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>シュトク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予約</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特定の不用品の予約リスト</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>フヨウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>特定の不用品の予約数</t>
-    <rPh sb="0" eb="2">
-      <t>トクテイ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>フヨウヒン</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>{"status":"success"}　</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>サインイン後、SESSION['CURRENT_USER_ID']、SESSION['CURRENT_USER']　を設定する</t>
-    </r>
-    <rPh sb="26" eb="27">
-      <t>ゴ</t>
-    </rPh>
-    <rPh sb="80" eb="82">
-      <t>セッテイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -752,7 +752,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -778,7 +778,7 @@
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
@@ -789,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>14</v>
@@ -806,13 +806,13 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F3" t="s">
         <v>12</v>
@@ -823,7 +823,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D4" t="s">
         <v>26</v>
@@ -840,7 +840,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" t="s">
         <v>27</v>
@@ -860,10 +860,10 @@
         <v>16</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
         <v>22</v>
@@ -877,7 +877,7 @@
         <v>17</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>23</v>
@@ -894,7 +894,7 @@
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" t="s">
         <v>25</v>
@@ -911,7 +911,7 @@
         <v>19</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D10" t="s">
         <v>26</v>
@@ -928,7 +928,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
@@ -942,19 +942,19 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" t="s">
         <v>29</v>
       </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13" t="s">
         <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>10</v>
@@ -962,16 +962,16 @@
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F14" t="s">
         <v>10</v>
@@ -979,16 +979,16 @@
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>23</v>
       </c>
       <c r="E15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F15" t="s">
         <v>10</v>
